--- a/DATA/Sell.xlsx
+++ b/DATA/Sell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VyNguyen\Autoweb\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9260394-D462-46C2-B770-08B1BAA0BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BDD49F-C917-4BAC-A106-C2176006AB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF7EB7DE-2EAD-4179-847E-7BC543938B35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>009C000002</t>
   </si>
@@ -68,19 +68,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>FPT</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
-    <t>ATO</t>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>VNM</t>
   </si>
 </sst>
 </file>
@@ -118,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,13 +433,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -456,45 +453,45 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
